--- a/doc/邮件列表的测试用例.xlsx
+++ b/doc/邮件列表的测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="未登录界面测试用例" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="282">
   <si>
     <t>用户未登录的界面功能测试</t>
   </si>
@@ -76,7 +76,7 @@
     <t>未通过</t>
   </si>
   <si>
-    <t>没有做重定向</t>
+    <t>没有做重定向，目前已经解决</t>
   </si>
   <si>
     <t>未登录，访问邮件列表，检查邮件列表是否显示正常</t>
@@ -706,13 +706,13 @@
     <t>检查exim是否安装成功</t>
   </si>
   <si>
-    <t>进入mailman-exim的pod， 输入exim -bv检查是否成功</t>
+    <t>进入mailman-exim的pod， 输入exim --version检查是否成功</t>
   </si>
   <si>
     <t>mailman-exim的pod正常运行</t>
   </si>
   <si>
-    <t>输入exim -bv</t>
+    <t>输入exim --version</t>
   </si>
   <si>
     <t>显示结果正常，没有报错信息</t>
@@ -743,7 +743,7 @@
   </si>
   <si>
     <t>&lt;1&gt;进入mailman-exim的pod
-&lt;2&gt;输入exim -bt -d base@lists.osinfra.cn</t>
+&lt;2&gt;输入exim -bt -d test@lists.osinfra.cn</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;1&gt;成功进入
@@ -799,6 +799,9 @@
     <t>不同网段的exim的认证矩阵测试</t>
   </si>
   <si>
+    <t>注意：可以使用auth_test.py去跑两个矩阵测试</t>
+  </si>
+  <si>
     <t>升级适配模块</t>
   </si>
   <si>
@@ -901,6 +904,9 @@
     <t>&lt;1&gt;huawei订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
 &lt;2&gt;huawei向邮件列表发送邮件
 &lt;3&gt;查看是否所有邮箱都能接受邮件</t>
+  </si>
+  <si>
+    <t>huawei邮箱由于没有外发权限，已经通过志哥的华为邮箱测试完成</t>
   </si>
   <si>
     <t>qq订阅邮件列表，通过A向邮件列表发送标题和内容带汉字</t>
@@ -958,8 +964,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -982,9 +988,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,14 +1004,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,53 +1032,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,23 +1064,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,6 +1077,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1120,7 +1119,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,13 +1147,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1165,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,25 +1249,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,73 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,31 +1327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,19 +1339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,21 +1411,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1432,8 +1423,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,17 +1459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,15 +1475,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,6 +1493,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1510,10 +1516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,137 +1528,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,37 +1707,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2084,8 +2078,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -2172,10 +2166,10 @@
       <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2400,10 +2394,10 @@
       <c r="H11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2442,7 +2436,7 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -2472,7 +2466,7 @@
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="10" t="s">
         <v>61</v>
       </c>
@@ -2500,7 +2494,7 @@
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="10" t="s">
         <v>65</v>
       </c>
@@ -2528,7 +2522,7 @@
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="10" t="s">
         <v>68</v>
       </c>
@@ -2556,7 +2550,7 @@
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="10" t="s">
         <v>71</v>
       </c>
@@ -2584,7 +2578,7 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2614,7 +2608,7 @@
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="10" t="s">
         <v>78</v>
       </c>
@@ -2642,7 +2636,7 @@
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="10" t="s">
         <v>81</v>
       </c>
@@ -2670,7 +2664,7 @@
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="10" t="s">
         <v>83</v>
       </c>
@@ -2698,7 +2692,7 @@
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -2728,7 +2722,7 @@
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
         <v>91</v>
       </c>
@@ -2747,7 +2741,7 @@
       <c r="I23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" ht="78" customHeight="1" spans="1:10">
       <c r="A24" s="8">
@@ -2756,7 +2750,7 @@
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
         <v>94</v>
       </c>
@@ -2775,7 +2769,7 @@
       <c r="I24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:10">
       <c r="A25" s="8">
@@ -2784,7 +2778,7 @@
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="10" t="s">
         <v>96</v>
       </c>
@@ -2803,7 +2797,7 @@
       <c r="I25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" ht="78" customHeight="1" spans="1:10">
       <c r="A26" s="8">
@@ -2812,7 +2806,7 @@
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
         <v>96</v>
       </c>
@@ -2831,7 +2825,7 @@
       <c r="I26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2853,8 +2847,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3431,7 +3425,7 @@
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="9" t="s">
         <v>160</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3461,7 +3455,7 @@
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="10" t="s">
         <v>166</v>
       </c>
@@ -3489,7 +3483,7 @@
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
         <v>170</v>
       </c>
@@ -3517,7 +3511,7 @@
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="10" t="s">
         <v>175</v>
       </c>
@@ -3545,7 +3539,7 @@
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="10" t="s">
         <v>179</v>
       </c>
@@ -3573,7 +3567,7 @@
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="10" t="s">
         <v>183</v>
       </c>
@@ -3784,10 +3778,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3971,370 +3965,370 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <v>1</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="17">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>25</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <v>3</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="17">
         <v>25</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>25</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <v>5</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="17">
         <v>25</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="20">
         <v>25</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:7">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <v>7</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="17">
         <v>25</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>8</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="20">
         <v>25</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:7">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>9</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="17">
         <v>465</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:7">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>10</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="20">
         <v>465</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:7">
-      <c r="A23" s="16">
-        <v>11</v>
-      </c>
-      <c r="B23" s="16">
+      <c r="A23" s="17">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17">
         <v>465</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="20">
         <v>12</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="20">
         <v>465</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:7">
-      <c r="A25" s="16">
+      <c r="A25" s="17">
         <v>13</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="17">
         <v>465</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:7">
-      <c r="A26" s="19">
+      <c r="A26" s="20">
         <v>14</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>465</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:7">
-      <c r="A27" s="16">
+      <c r="A27" s="17">
         <v>15</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="17">
         <v>465</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="19">
+      <c r="A28" s="20">
         <v>16</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="20">
         <v>465</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="20" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4375,369 +4369,374 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" ht="15" spans="1:7">
-      <c r="A38" s="16">
+      <c r="A38" s="17">
         <v>1</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="17">
         <v>25</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:7">
-      <c r="A39" s="19">
+      <c r="A39" s="20">
         <v>2</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="20">
         <v>25</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="16">
+      <c r="A40" s="17">
         <v>3</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="17">
         <v>25</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="19">
+      <c r="A41" s="20">
         <v>4</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="20">
         <v>25</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="16">
+      <c r="A42" s="17">
         <v>5</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="17">
         <v>25</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="19">
+      <c r="A43" s="20">
         <v>6</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="20">
         <v>25</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:7">
-      <c r="A44" s="16">
+      <c r="A44" s="17">
         <v>7</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="17">
         <v>25</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="19">
+      <c r="A45" s="20">
         <v>8</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="20">
         <v>25</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="16">
+      <c r="A46" s="17">
         <v>9</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="17">
         <v>465</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17" t="s">
+      <c r="E46" s="17"/>
+      <c r="F46" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="19">
+      <c r="A47" s="20">
         <v>10</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="20">
         <v>465</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="16">
-        <v>11</v>
-      </c>
-      <c r="B48" s="16">
+      <c r="A48" s="17">
+        <v>11</v>
+      </c>
+      <c r="B48" s="17">
         <v>465</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:7">
-      <c r="A49" s="19">
+      <c r="A49" s="20">
         <v>12</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="20">
         <v>465</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:7">
-      <c r="A50" s="16">
+      <c r="A50" s="17">
         <v>13</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="17">
         <v>465</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:7">
-      <c r="A51" s="19">
+      <c r="A51" s="20">
         <v>14</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="20">
         <v>465</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:7">
-      <c r="A52" s="16">
+      <c r="A52" s="17">
         <v>15</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="17">
         <v>465</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:7">
-      <c r="A53" s="19">
+      <c r="A53" s="20">
         <v>16</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="20">
         <v>465</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="20" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="8:8">
+      <c r="H57" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4758,8 +4757,8 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -4829,22 +4828,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>24</v>
@@ -4860,19 +4859,19 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>24</v>
@@ -4888,19 +4887,19 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>24</v>
@@ -4916,19 +4915,19 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>24</v>
@@ -4944,19 +4943,19 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>24</v>
@@ -4972,19 +4971,19 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>24</v>
@@ -4999,22 +4998,22 @@
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>24</v>
@@ -5030,19 +5029,19 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>24</v>
@@ -5058,19 +5057,19 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>24</v>
@@ -5086,24 +5085,26 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="16" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
       <c r="A13" s="8">
@@ -5114,19 +5115,19 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>24</v>
@@ -5142,19 +5143,19 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>24</v>
@@ -5170,19 +5171,19 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>24</v>
@@ -5198,19 +5199,19 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>24</v>

--- a/doc/邮件列表的测试用例.xlsx
+++ b/doc/邮件列表的测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="315">
   <si>
     <t>用户未登录的界面功能测试</t>
   </si>
@@ -868,7 +868,7 @@
     <t>邮件列表发送模块</t>
   </si>
   <si>
-    <t>qq订阅邮件列表，通过A向邮件列表发送邮件</t>
+    <t>qq邮箱订阅邮件列表，并通过qq邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
     <t>&lt;1&gt;qq订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
@@ -882,7 +882,7 @@
     <t>&lt;3&gt;所有邮箱都能接受到邮件</t>
   </si>
   <si>
-    <t>gmail订阅邮件列表，通过A向邮件列表发送邮件</t>
+    <t>gmail邮箱订阅邮件列表，并通过gmail邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
     <t>&lt;1&gt;gmail订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
@@ -890,7 +890,7 @@
 &lt;3&gt;查看是否所有邮箱都能接受邮件</t>
   </si>
   <si>
-    <t>163订阅邮件列表，通过A向邮件列表发送邮件</t>
+    <t>163邮箱订阅邮件列表，并通过163邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
     <t>&lt;1&gt;163订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
@@ -898,7 +898,7 @@
 &lt;3&gt;查看是否所有邮箱都能接受邮件</t>
   </si>
   <si>
-    <t>huawei订阅邮件列表，通过A向邮件列表发送邮件</t>
+    <t>huawei邮箱订阅邮件列表，并通过huawei邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
     <t>&lt;1&gt;huawei订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
@@ -906,55 +906,187 @@
 &lt;3&gt;查看是否所有邮箱都能接受邮件</t>
   </si>
   <si>
-    <t>huawei邮箱由于没有外发权限，已经通过志哥的华为邮箱测试完成</t>
-  </si>
-  <si>
-    <t>qq订阅邮件列表，通过A向邮件列表发送标题和内容带汉字</t>
+    <t>126邮箱订阅邮件列表，并通过126邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;126邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>成功订阅，且收件邮件列表的所有订阅邮箱都能接收到邮件</t>
+  </si>
+  <si>
+    <t>outlook邮箱订阅邮件列表，并通过outlook邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;outlook邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>订阅邮箱失败</t>
+  </si>
+  <si>
+    <t>outlook邮箱无法接收邮件列表发送的邮件，订阅失败</t>
+  </si>
+  <si>
+    <t>被outlook拦截</t>
+  </si>
+  <si>
+    <t>hotmail邮箱订阅邮件列表，并通过hotmail邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;hotmail邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>hotmail邮箱无法接收邮件列表发送的邮件，订阅失败</t>
+  </si>
+  <si>
+    <t>foxmail邮箱订阅邮件列表，并通过foxmail邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;foxmail邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>wo邮箱订阅邮件列表，并通过wo邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;wo邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>wo邮箱能接收邮件列表发送的confirm邮件，但无法给发件人回复，订阅失败</t>
+  </si>
+  <si>
+    <t>飞书邮箱订阅邮件列表，并通过飞书邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;飞书邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>搜狐邮箱订阅邮件列表，并通过搜狐邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;搜狐邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>搜狐邮箱无法接收邮件列表发送的confirm邮件，订阅失败</t>
+  </si>
+  <si>
+    <t>新浪邮箱订阅邮件列表，并通过新浪邮箱向订阅的邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;新浪邮箱订阅邮件列表
+&lt;2&gt;成功订阅后向邮件列表发送邮件</t>
+  </si>
+  <si>
+    <t>新浪邮箱能接收邮件列表发送的confirm邮件，但在回复后无法收到welcome邮件，订阅失败</t>
+  </si>
+  <si>
+    <t>qq邮箱订阅邮件列表，通过qq邮箱向订阅的邮件列表发送标题和内容带汉字</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;qq订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
+&lt;2&gt;qq向邮件列表发送邮件,查看所有邮箱接受到是否乱码</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;订阅成功
+&lt;2&gt;所有邮箱接受到不存在乱码</t>
+  </si>
+  <si>
+    <t>gmail邮箱订阅邮件列表，通过gmail邮箱向邮件列表发送带表情的邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;gmail订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)，检查是否订阅成功。
+&lt;2&gt;gmail向邮件列表发送邮件， 查看所有邮箱接受到是否接受到表情</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;订阅成功
+&lt;2&gt;所有邮箱接受表情符号</t>
+  </si>
+  <si>
+    <t>163邮箱订阅邮件列表，通过163邮箱向邮件列表发送带表格的邮件</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;163订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
+&lt;2&gt;163向邮件列表发送邮件，查看所有邮箱接受到是否接受到表格信息</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;订阅成功
+&lt;2&gt;所有邮箱接受带表格信息</t>
+  </si>
+  <si>
+    <t>qq邮箱订阅邮件列表，通过qq邮箱向邮件列表发送邮件,然后回复发件人</t>
   </si>
   <si>
     <t>&lt;1&gt;qq订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
 &lt;2&gt;qq向邮件列表发送邮件
-&lt;3&gt;查看所有邮箱接受到是否乱码</t>
-  </si>
-  <si>
-    <t>&lt;3&gt;所有邮箱接受到不存在乱码</t>
-  </si>
-  <si>
-    <t>gmail订阅邮件列表，通过A向邮件列表发送带表情的邮件</t>
-  </si>
-  <si>
-    <t>&lt;1&gt;gmail订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
-&lt;2&gt;gmail向邮件列表发送邮件
-&lt;3&gt;查看所有邮箱接受到是否接受到表情</t>
-  </si>
-  <si>
-    <t>&lt;3&gt;所有邮箱接受表情符号</t>
-  </si>
-  <si>
-    <t>163订阅邮件列表，通过A向邮件列表发送带表格的邮件</t>
-  </si>
-  <si>
-    <t>&lt;1&gt;163订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
-&lt;2&gt;163向邮件列表发送邮件
-&lt;3&gt;查看所有邮箱接受到是否接受到表格信息</t>
-  </si>
-  <si>
-    <t>&lt;3&gt;所有邮箱接受带表格信息</t>
-  </si>
-  <si>
-    <t>qq订阅邮件列表，通过A向邮件列表发送邮件,然后回复消息</t>
-  </si>
-  <si>
-    <t>&lt;1&gt;qq订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
-&lt;2&gt;qq向邮件列表发送邮件
-&lt;3&gt;163回复所有邮件
-&lt;4&gt;gmail回复所有的邮件
-&lt;5&gt;huawei回复所有的邮件</t>
+&lt;3&gt;163回复发件人
+&lt;4&gt;gmail回复发件人
+&lt;5&gt;huawei回复发件人
+&lt;6&gt;qq回复发件人</t>
   </si>
   <si>
     <t>&lt;3&gt;所有邮箱都能接受到回复邮件
 &lt;4&gt;所有邮箱都能接受到回复邮件
-&lt;5&gt;所有邮箱都能接受到回复邮件</t>
+&lt;5&gt;所有邮箱都能接受到回复邮件
+&lt;6&gt;所有邮箱都能接受到回复邮件</t>
+  </si>
+  <si>
+    <t>qq邮箱订阅邮件列表，通过qq邮箱向邮件列表发送邮件,然后回复全部</t>
+  </si>
+  <si>
+    <t>huawei邮箱订阅邮件列表，通过华为邮箱向邮件列表发送邮件,然后回复发件人</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;huawei邮箱订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
+&lt;2&gt;huawei邮箱向邮件列表发送邮件
+&lt;3&gt;163回复发件人
+&lt;4&gt;gmail回复发件人
+&lt;5&gt;huawei回复发件人
+&lt;6&gt;qq回复发件人</t>
+  </si>
+  <si>
+    <t>huawei邮箱订阅邮件列表，通过huawei邮箱向邮件列表发送邮件,然后回复全部</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;huawei邮箱订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
+&lt;2&gt;huawei邮箱向邮件列表发送邮件
+&lt;3&gt;163回复全部
+&lt;4&gt;gmail回复全部
+&lt;5&gt;huawei回复全部
+&lt;6&gt;qq回复全部</t>
+  </si>
+  <si>
+    <t>163邮箱订阅邮件列表，通过163邮箱向邮件列表发送邮件,然后回复发件人</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;163邮箱订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
+&lt;2&gt;163邮箱向邮件列表发送邮件
+&lt;3&gt;163回复发件人
+&lt;4&gt;gmail回复发件人
+&lt;5&gt;huawei回复发件人
+&lt;6&gt;qq回复发件人</t>
+  </si>
+  <si>
+    <t>&lt;3&gt;只有发件人收到邮件
+&lt;4&gt;只有发件人收到邮件
+&lt;5&gt;只有发件人收到邮件
+&lt;6&gt;只有发件人收到邮件</t>
+  </si>
+  <si>
+    <t>163邮箱订阅邮件列表，通过163邮箱向邮件列表发送邮件,然后回复全部</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;163邮箱订阅邮件列表(邮件列表中包括qq，163，gmail,huawei等邮箱)
+&lt;2&gt;163邮箱向邮件列表发送邮件
+&lt;3&gt;163回复全部
+&lt;4&gt;gmail回复全部
+&lt;5&gt;huawei回复全部
+&lt;6&gt;qq回复全部</t>
   </si>
 </sst>
 </file>
@@ -962,10 +1094,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -989,6 +1121,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -996,22 +1135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,14 +1149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,7 +1172,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1063,17 +1188,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1094,18 +1212,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1132,7 +1264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,7 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1291,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,31 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,13 +1411,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,49 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,31 +1465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,24 +1549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1461,6 +1581,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1470,11 +1601,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,10 +1654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1528,137 +1666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1716,16 +1854,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:G26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -2166,10 +2307,10 @@
       <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2394,10 +2535,10 @@
       <c r="H11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2847,8 +2988,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3780,7 +3921,7 @@
   <sheetPr/>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -4755,10 +4896,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -5102,11 +5243,9 @@
       <c r="I12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -5115,10 +5254,10 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>244</v>
@@ -5127,14 +5266,14 @@
         <v>261</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
+        <v>271</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -5143,26 +5282,28 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>244</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
+      <c r="J14" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -5171,26 +5312,28 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>244</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="96" customHeight="1" spans="1:10">
+        <v>279</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -5199,10 +5342,10 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>244</v>
@@ -5211,18 +5354,382 @@
         <v>261</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="102" customHeight="1" spans="1:10">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="86" customHeight="1" spans="1:10">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="86" customHeight="1" spans="1:10">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="86" customHeight="1" spans="1:10">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="86" customHeight="1" spans="1:10">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="86" customHeight="1" spans="1:10">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C9:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/邮件列表的测试用例.xlsx
+++ b/doc/邮件列表的测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="316">
   <si>
     <t>用户未登录的界面功能测试</t>
   </si>
@@ -929,7 +929,7 @@
     <t>outlook邮箱无法接收邮件列表发送的邮件，订阅失败</t>
   </si>
   <si>
-    <t>被outlook拦截</t>
+    <t>被outlook拦截,正在加入白名单</t>
   </si>
   <si>
     <t>hotmail邮箱订阅邮件列表，并通过hotmail邮箱向订阅的邮件列表发送邮件</t>
@@ -959,6 +959,9 @@
     <t>wo邮箱能接收邮件列表发送的confirm邮件，但无法给发件人回复，订阅失败</t>
   </si>
   <si>
+    <t>客户端申请加入邮件列表回复的时候因为收件人的邮箱太长</t>
+  </si>
+  <si>
     <t>飞书邮箱订阅邮件列表，并通过飞书邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
@@ -976,14 +979,14 @@
     <t>搜狐邮箱无法接收邮件列表发送的confirm邮件，订阅失败</t>
   </si>
   <si>
+    <t>直接报host not found</t>
+  </si>
+  <si>
     <t>新浪邮箱订阅邮件列表，并通过新浪邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
     <t>&lt;1&gt;新浪邮箱订阅邮件列表
 &lt;2&gt;成功订阅后向邮件列表发送邮件</t>
-  </si>
-  <si>
-    <t>新浪邮箱能接收邮件列表发送的confirm邮件，但在回复后无法收到welcome邮件，订阅失败</t>
   </si>
   <si>
     <t>qq邮箱订阅邮件列表，通过qq邮箱向订阅的邮件列表发送标题和内容带汉字</t>
@@ -1095,9 +1098,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1121,77 +1124,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1203,39 +1138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,7 +1156,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,8 +1203,71 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,6 +1277,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,13 +1306,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF8F8F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,13 +1366,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,31 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,115 +1486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,6 +1558,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1560,41 +1584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,6 +1606,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1632,17 +1645,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1654,10 +1663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1666,137 +1675,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,27 +1855,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2307,10 +2325,10 @@
       <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2535,10 +2553,10 @@
       <c r="H11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4106,370 +4124,370 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="17">
+      <c r="A13" s="21">
         <v>1</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="21">
         <v>25</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="20">
+      <c r="A14" s="24">
         <v>2</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="24">
         <v>25</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="17">
+      <c r="A15" s="21">
         <v>3</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="21">
         <v>25</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="20">
+      <c r="A16" s="24">
         <v>4</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="24">
         <v>25</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="17">
+      <c r="A17" s="21">
         <v>5</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="21">
         <v>25</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:7">
-      <c r="A18" s="20">
+      <c r="A18" s="24">
         <v>6</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="24">
         <v>25</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:7">
-      <c r="A19" s="17">
+      <c r="A19" s="21">
         <v>7</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="21">
         <v>25</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:7">
-      <c r="A20" s="20">
+      <c r="A20" s="24">
         <v>8</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="24">
         <v>25</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:7">
-      <c r="A21" s="17">
+      <c r="A21" s="21">
         <v>9</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="21">
         <v>465</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:7">
-      <c r="A22" s="20">
+      <c r="A22" s="24">
         <v>10</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="24">
         <v>465</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:7">
-      <c r="A23" s="17">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="A23" s="21">
+        <v>11</v>
+      </c>
+      <c r="B23" s="21">
         <v>465</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:7">
-      <c r="A24" s="20">
+      <c r="A24" s="24">
         <v>12</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="24">
         <v>465</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:7">
-      <c r="A25" s="17">
+      <c r="A25" s="21">
         <v>13</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="21">
         <v>465</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:7">
-      <c r="A26" s="20">
+      <c r="A26" s="24">
         <v>14</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="24">
         <v>465</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:7">
-      <c r="A27" s="17">
+      <c r="A27" s="21">
         <v>15</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="21">
         <v>465</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="20">
+      <c r="A28" s="24">
         <v>16</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="24">
         <v>465</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="24" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4510,373 +4528,373 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" ht="15" spans="1:7">
-      <c r="A38" s="17">
+      <c r="A38" s="21">
         <v>1</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="21">
         <v>25</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:7">
-      <c r="A39" s="20">
+      <c r="A39" s="24">
         <v>2</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="24">
         <v>25</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="17">
+      <c r="A40" s="21">
         <v>3</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="21">
         <v>25</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="20">
+      <c r="A41" s="24">
         <v>4</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="24">
         <v>25</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="17">
+      <c r="A42" s="21">
         <v>5</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="21">
         <v>25</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="20">
+      <c r="A43" s="24">
         <v>6</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="24">
         <v>25</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:7">
-      <c r="A44" s="17">
+      <c r="A44" s="21">
         <v>7</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="21">
         <v>25</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="20">
+      <c r="A45" s="24">
         <v>8</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="24">
         <v>25</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="17">
+      <c r="A46" s="21">
         <v>9</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="21">
         <v>465</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18" t="s">
+      <c r="E46" s="21"/>
+      <c r="F46" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="20">
+      <c r="A47" s="24">
         <v>10</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="24">
         <v>465</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="17">
-        <v>11</v>
-      </c>
-      <c r="B48" s="17">
+      <c r="A48" s="21">
+        <v>11</v>
+      </c>
+      <c r="B48" s="21">
         <v>465</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:7">
-      <c r="A49" s="20">
+      <c r="A49" s="24">
         <v>12</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="24">
         <v>465</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:7">
-      <c r="A50" s="17">
+      <c r="A50" s="21">
         <v>13</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="21">
         <v>465</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:7">
-      <c r="A51" s="20">
+      <c r="A51" s="24">
         <v>14</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="24">
         <v>465</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:7">
-      <c r="A52" s="17">
+      <c r="A52" s="21">
         <v>15</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="21">
         <v>465</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:7">
-      <c r="A53" s="20">
+      <c r="A53" s="24">
         <v>16</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="24">
         <v>465</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="57" ht="27" spans="8:8">
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="25" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4898,8 +4916,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -4911,7 +4929,7 @@
     <col min="7" max="7" width="20.4583333333333" style="4" customWidth="1"/>
     <col min="8" max="8" width="34.925" style="4" customWidth="1"/>
     <col min="9" max="9" width="37.15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="37.6333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="66.3666666666667" style="2" customWidth="1"/>
     <col min="11" max="16383" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
@@ -5253,23 +5271,23 @@
         <v>11</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>271</v>
+      <c r="I13" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -5281,25 +5299,25 @@
         <v>11</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="20" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5311,25 +5329,25 @@
         <v>11</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="20" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5341,23 +5359,23 @@
         <v>11</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>271</v>
+      <c r="I16" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -5369,25 +5387,27 @@
         <v>11</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A18" s="8">
@@ -5397,25 +5417,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J18" s="16"/>
+      <c r="I18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A19" s="8">
@@ -5425,25 +5445,27 @@
         <v>11</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="J19" s="16"/>
+      <c r="I19" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A20" s="8">
@@ -5453,25 +5475,25 @@
         <v>11</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" s="16"/>
+      <c r="I20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="59" customHeight="1" spans="1:10">
       <c r="A21" s="8">
@@ -5482,10 +5504,10 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>244</v>
@@ -5494,7 +5516,7 @@
         <v>261</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>24</v>
@@ -5510,10 +5532,10 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>244</v>
@@ -5522,7 +5544,7 @@
         <v>261</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>24</v>
@@ -5538,10 +5560,10 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>244</v>
@@ -5550,7 +5572,7 @@
         <v>261</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>24</v>
@@ -5566,10 +5588,10 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>244</v>
@@ -5578,7 +5600,7 @@
         <v>261</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>24</v>
@@ -5594,10 +5616,10 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>244</v>
@@ -5606,7 +5628,7 @@
         <v>261</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>24</v>
@@ -5622,10 +5644,10 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>244</v>
@@ -5634,7 +5656,7 @@
         <v>261</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>24</v>
@@ -5650,10 +5672,10 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>244</v>
@@ -5662,7 +5684,7 @@
         <v>261</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>24</v>
@@ -5678,10 +5700,10 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>244</v>
@@ -5690,7 +5712,7 @@
         <v>261</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>24</v>
@@ -5706,10 +5728,10 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>244</v>
@@ -5718,7 +5740,7 @@
         <v>261</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>24</v>

--- a/doc/邮件列表的测试用例.xlsx
+++ b/doc/邮件列表的测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="313">
   <si>
     <t>用户未登录的界面功能测试</t>
   </si>
@@ -926,20 +926,11 @@
     <t>订阅邮箱失败</t>
   </si>
   <si>
-    <t>outlook邮箱无法接收邮件列表发送的邮件，订阅失败</t>
-  </si>
-  <si>
-    <t>被outlook拦截,正在加入白名单</t>
-  </si>
-  <si>
     <t>hotmail邮箱订阅邮件列表，并通过hotmail邮箱向订阅的邮件列表发送邮件</t>
   </si>
   <si>
     <t>&lt;1&gt;hotmail邮箱订阅邮件列表
 &lt;2&gt;成功订阅后向邮件列表发送邮件</t>
-  </si>
-  <si>
-    <t>hotmail邮箱无法接收邮件列表发送的邮件，订阅失败</t>
   </si>
   <si>
     <t>foxmail邮箱订阅邮件列表，并通过foxmail邮箱向订阅的邮件列表发送邮件</t>
@@ -1097,10 +1088,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1131,24 +1122,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,35 +1152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,16 +1165,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1228,17 +1203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,6 +1220,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1260,8 +1243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1312,19 +1303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,31 +1327,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1375,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,25 +1423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,43 +1453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,19 +1471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,16 +1549,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1588,33 +1579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1630,17 +1594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,6 +1613,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1663,10 +1654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,133 +1666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4916,8 +4907,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -5314,12 +5305,10 @@
       <c r="H14" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="I14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A15" s="8">
@@ -5330,10 +5319,10 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>244</v>
@@ -5344,12 +5333,10 @@
       <c r="H15" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="I15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A16" s="8">
@@ -5360,10 +5347,10 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>244</v>
@@ -5388,10 +5375,10 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>244</v>
@@ -5403,10 +5390,10 @@
         <v>271</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
@@ -5418,10 +5405,10 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>244</v>
@@ -5446,10 +5433,10 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>244</v>
@@ -5461,10 +5448,10 @@
         <v>271</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:10">
@@ -5476,10 +5463,10 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>244</v>
@@ -5504,10 +5491,10 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>244</v>
@@ -5516,7 +5503,7 @@
         <v>261</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>24</v>
@@ -5532,10 +5519,10 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>244</v>
@@ -5544,7 +5531,7 @@
         <v>261</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>24</v>
@@ -5560,10 +5547,10 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>244</v>
@@ -5572,7 +5559,7 @@
         <v>261</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>24</v>
@@ -5588,10 +5575,10 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>244</v>
@@ -5600,7 +5587,7 @@
         <v>261</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>24</v>
@@ -5616,10 +5603,10 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>244</v>
@@ -5628,7 +5615,7 @@
         <v>261</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>24</v>
@@ -5644,10 +5631,10 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>244</v>
@@ -5656,7 +5643,7 @@
         <v>261</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>24</v>
@@ -5672,10 +5659,10 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>244</v>
@@ -5684,7 +5671,7 @@
         <v>261</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>24</v>
@@ -5700,10 +5687,10 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>244</v>
@@ -5712,7 +5699,7 @@
         <v>261</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>24</v>
@@ -5728,10 +5715,10 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>244</v>
@@ -5740,7 +5727,7 @@
         <v>261</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>24</v>
